--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,75 +40,69 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>fear</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
@@ -121,10 +115,13 @@
     <t>isolation</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
@@ -136,85 +133,97 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>join</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>like</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>relief</t>
@@ -229,46 +238,46 @@
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>essential</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>new</t>
   </si>
   <si>
     <t>home</t>
@@ -283,22 +292,19 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -656,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -796,16 +802,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -846,16 +852,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -875,13 +881,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -893,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -925,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -943,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -975,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.72</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -993,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.8359375</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L8">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="M8">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1017,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1025,13 +1031,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.708904109589041</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C9">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D9">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1043,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1067,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1075,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1093,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8359375</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1117,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1125,13 +1131,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5666666666666667</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1143,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1167,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1175,13 +1181,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5652173913043478</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1193,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1217,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1225,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5526315789473685</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1243,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1267,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,13 +1281,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1293,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.7727272727272727</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1317,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1325,13 +1331,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1343,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1367,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1375,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4516129032258064</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1393,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.7586206896551724</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1417,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1425,13 +1431,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4193548387096774</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1443,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L17">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1467,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1475,49 +1481,49 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3888888888888889</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>44</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L18">
+        <v>37</v>
+      </c>
+      <c r="M18">
+        <v>37</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>14</v>
-      </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>22</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18">
-        <v>0.746031746031746</v>
-      </c>
-      <c r="L18">
-        <v>47</v>
-      </c>
-      <c r="M18">
-        <v>47</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1525,13 +1531,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3846153846153846</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1543,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.73125</v>
+        <v>0.71875</v>
       </c>
       <c r="L19">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M19">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1567,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1575,49 +1581,49 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3783783783783784</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C20">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>56</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>93</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L20">
+        <v>33</v>
+      </c>
+      <c r="M20">
+        <v>33</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>14</v>
-      </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>23</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20">
-        <v>0.7169811320754716</v>
-      </c>
-      <c r="L20">
-        <v>76</v>
-      </c>
-      <c r="M20">
-        <v>76</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1625,13 +1631,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3733333333333334</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1643,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.7127659574468085</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L21">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1667,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1675,13 +1681,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3691275167785235</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C22">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1693,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.6944444444444444</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1717,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1725,13 +1731,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3624031007751938</v>
+        <v>0.3275193798449613</v>
       </c>
       <c r="C23">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D23">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1743,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1767,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1775,13 +1781,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3559322033898305</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1793,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1817,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1825,13 +1831,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3513513513513514</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1843,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.6475195822454308</v>
+        <v>0.625</v>
       </c>
       <c r="L25">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1867,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1875,13 +1881,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1893,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.6296296296296297</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1917,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1925,13 +1931,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.291005291005291</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1943,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.6071428571428571</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1967,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1975,7 +1981,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2597402597402597</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -1993,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.5882352941176471</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2017,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2025,7 +2031,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2549019607843137</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -2043,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.5647058823529412</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L29">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2067,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2075,13 +2081,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2372881355932203</v>
+        <v>0.1875</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2093,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K30">
-        <v>0.54</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2117,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2125,13 +2131,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2</v>
+        <v>0.1626984126984127</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2143,19 +2149,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>0.5333333333333333</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2167,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2175,13 +2181,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1626984126984127</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C32">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2193,167 +2199,143 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>211</v>
+        <v>336</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="L32">
+        <v>49</v>
+      </c>
+      <c r="M32">
+        <v>49</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K32">
-        <v>0.5186440677966102</v>
-      </c>
-      <c r="L32">
-        <v>153</v>
-      </c>
-      <c r="M32">
-        <v>153</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.09919571045576407</v>
-      </c>
-      <c r="C33">
-        <v>37</v>
-      </c>
-      <c r="D33">
-        <v>37</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>336</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33">
+        <v>0.55</v>
+      </c>
+      <c r="L33">
+        <v>22</v>
+      </c>
+      <c r="M33">
+        <v>22</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K33">
-        <v>0.5076923076923077</v>
-      </c>
-      <c r="L33">
-        <v>33</v>
-      </c>
-      <c r="M33">
-        <v>33</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
+      <c r="K34">
+        <v>0.54</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
+        <v>27</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K34">
-        <v>0.5056179775280899</v>
-      </c>
-      <c r="L34">
-        <v>45</v>
-      </c>
-      <c r="M34">
-        <v>45</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
+      <c r="K35">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L35">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>24</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K35">
-        <v>0.4686192468619247</v>
-      </c>
-      <c r="L35">
-        <v>112</v>
-      </c>
-      <c r="M35">
-        <v>112</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
+      <c r="K36">
+        <v>0.5220338983050847</v>
+      </c>
+      <c r="L36">
+        <v>154</v>
+      </c>
+      <c r="M36">
+        <v>154</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K36">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="L36">
-        <v>19</v>
-      </c>
-      <c r="M36">
-        <v>19</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="K37">
-        <v>0.4383561643835616</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L37">
         <v>32</v>
@@ -2371,281 +2353,281 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38">
+        <v>0.4728033472803347</v>
+      </c>
+      <c r="L38">
+        <v>113</v>
+      </c>
+      <c r="M38">
+        <v>113</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K38">
+      <c r="K39">
+        <v>0.453125</v>
+      </c>
+      <c r="L39">
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>29</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="L40">
+        <v>33</v>
+      </c>
+      <c r="M40">
+        <v>33</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="L41">
+        <v>34</v>
+      </c>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42">
         <v>0.425</v>
       </c>
-      <c r="L38">
+      <c r="L42">
         <v>17</v>
       </c>
-      <c r="M38">
+      <c r="M42">
         <v>17</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.4186046511627907</v>
-      </c>
-      <c r="L39">
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K43">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="L43">
+        <v>13</v>
+      </c>
+      <c r="M43">
+        <v>13</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>18</v>
       </c>
-      <c r="M39">
-        <v>18</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K44">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40">
-        <v>0.4102564102564102</v>
-      </c>
-      <c r="L40">
-        <v>32</v>
-      </c>
-      <c r="M40">
-        <v>32</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45">
+        <v>0.3</v>
+      </c>
+      <c r="L45">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K46">
+        <v>0.2978723404255319</v>
+      </c>
+      <c r="L46">
+        <v>14</v>
+      </c>
+      <c r="M46">
+        <v>14</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K47">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="L47">
+        <v>15</v>
+      </c>
+      <c r="M47">
+        <v>15</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="L41">
-        <v>13</v>
-      </c>
-      <c r="M41">
-        <v>13</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42">
-        <v>0.375</v>
-      </c>
-      <c r="L42">
-        <v>15</v>
-      </c>
-      <c r="M42">
-        <v>15</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43">
-        <v>0.375</v>
-      </c>
-      <c r="L43">
-        <v>24</v>
-      </c>
-      <c r="M43">
-        <v>24</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44">
-        <v>0.3</v>
-      </c>
-      <c r="L44">
-        <v>21</v>
-      </c>
-      <c r="M44">
-        <v>21</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K45">
-        <v>0.1181102362204724</v>
-      </c>
-      <c r="L45">
-        <v>15</v>
-      </c>
-      <c r="M45">
-        <v>15</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K46">
-        <v>0.09330143540669857</v>
-      </c>
-      <c r="L46">
-        <v>39</v>
-      </c>
-      <c r="M46">
-        <v>39</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K47">
-        <v>0.08653846153846154</v>
-      </c>
-      <c r="L47">
-        <v>36</v>
-      </c>
-      <c r="M47">
-        <v>36</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="K48">
-        <v>0.08372093023255814</v>
+        <v>0.1259842519685039</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2657,21 +2639,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>197</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.05369127516778523</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L49">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M49">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2683,47 +2665,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>846</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K50">
-        <v>0.049079754601227</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N50">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>310</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K51">
-        <v>0.03995560488346282</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2735,47 +2717,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>865</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K52">
-        <v>0.02616822429906542</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L52">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="N52">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2084</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K53">
-        <v>0.02615384615384615</v>
+        <v>0.05480984340044743</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2787,111 +2769,189 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>633</v>
+        <v>845</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K54">
-        <v>0.02193995381062356</v>
+        <v>0.03975535168195719</v>
       </c>
       <c r="L54">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>847</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55">
-        <v>0.01352221506761108</v>
+        <v>0.03662597114317425</v>
       </c>
       <c r="L55">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M55">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>3064</v>
+        <v>868</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K56">
-        <v>0.0134297520661157</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>955</v>
+        <v>627</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K57">
+        <v>0.03114186851211072</v>
+      </c>
+      <c r="L57">
+        <v>27</v>
+      </c>
+      <c r="M57">
+        <v>27</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K57">
-        <v>0.00594679186228482</v>
-      </c>
-      <c r="L57">
-        <v>19</v>
-      </c>
-      <c r="M57">
-        <v>25</v>
-      </c>
-      <c r="N57">
-        <v>0.76</v>
-      </c>
-      <c r="O57">
-        <v>0.24</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>3176</v>
+      <c r="K58">
+        <v>0.02476635514018691</v>
+      </c>
+      <c r="L58">
+        <v>53</v>
+      </c>
+      <c r="M58">
+        <v>56</v>
+      </c>
+      <c r="N58">
+        <v>0.95</v>
+      </c>
+      <c r="O58">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K59">
+        <v>0.01654601861427094</v>
+      </c>
+      <c r="L59">
+        <v>16</v>
+      </c>
+      <c r="M59">
+        <v>17</v>
+      </c>
+      <c r="N59">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O59">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K60">
+        <v>0.01160541586073501</v>
+      </c>
+      <c r="L60">
+        <v>36</v>
+      </c>
+      <c r="M60">
+        <v>41</v>
+      </c>
+      <c r="N60">
+        <v>0.88</v>
+      </c>
+      <c r="O60">
+        <v>0.12</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>3066</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,60 +49,60 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>uncertainty</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
@@ -112,15 +112,12 @@
     <t>risk</t>
   </si>
   <si>
-    <t>isolation</t>
+    <t>drop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -133,132 +130,144 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>energy</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>giving</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -268,15 +277,15 @@
     <t>give</t>
   </si>
   <si>
-    <t>essential</t>
+    <t>health</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -295,16 +304,19 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>19</t>
+    <t>co</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>co</t>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -662,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -752,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -773,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -802,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -852,16 +864,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -923,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -931,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -973,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -981,13 +993,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7692307692307693</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1023,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1031,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7226027397260274</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C9">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1073,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1081,13 +1093,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6551724137931034</v>
+        <v>0.68</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1099,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.8359375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L10">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M10">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1143,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5652173913043478</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.8166666666666667</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="M11">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1173,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,13 +1193,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5483870967741935</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1199,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8203125</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,13 +1243,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5263157894736842</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1249,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.7887323943661971</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1273,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1281,13 +1293,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1299,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1352,16 +1364,16 @@
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.7619047619047619</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1373,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1381,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4871794871794872</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1399,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.7547169811320755</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L16">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1423,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1431,13 +1443,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4324324324324325</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1449,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.7368421052631579</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,13 +1493,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4133333333333333</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1499,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.7254901960784313</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1523,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1531,13 +1543,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4102564102564102</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.71875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1573,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1581,13 +1593,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3758389261744967</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C20">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1599,19 +1611,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.7021276595744681</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1623,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1631,13 +1643,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3513513513513514</v>
+        <v>0.36</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.6818181818181818</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1673,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,13 +1693,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3389830508474576</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1699,19 +1711,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.6808510638297872</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1723,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1731,13 +1743,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3275193798449613</v>
+        <v>0.3422818791946309</v>
       </c>
       <c r="C23">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,19 +1761,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>347</v>
+        <v>98</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1773,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1781,13 +1793,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3137254901960784</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1799,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.6428571428571429</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1823,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1831,13 +1843,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2962962962962963</v>
+        <v>0.291005291005291</v>
       </c>
       <c r="C25">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1849,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.625</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1873,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1881,13 +1893,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2727272727272727</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1899,19 +1911,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.71875</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1923,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1931,7 +1943,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2549019607843137</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -1949,19 +1961,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27">
+        <v>0.6702127659574468</v>
+      </c>
+      <c r="L27">
         <v>63</v>
       </c>
-      <c r="K27">
-        <v>0.6161879895561357</v>
-      </c>
-      <c r="L27">
-        <v>236</v>
-      </c>
       <c r="M27">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1973,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1981,13 +1993,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2222222222222222</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1999,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.5852941176470589</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2023,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2031,13 +2043,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2203389830508475</v>
+        <v>0.175</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2049,19 +2061,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29">
-        <v>0.5833333333333334</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2073,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2081,13 +2093,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1875</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2099,19 +2111,19 @@
         <v>0</v>
       </c>
       <c r="H30">
+        <v>214</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="K30">
-        <v>0.5813953488372093</v>
+        <v>0.64</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2131,13 +2143,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1626984126984127</v>
+        <v>0.08847184986595175</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2149,69 +2161,45 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>211</v>
+        <v>340</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31">
+        <v>0.6279069767441861</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K31">
-        <v>0.5588235294117647</v>
-      </c>
-      <c r="L31">
-        <v>19</v>
-      </c>
-      <c r="M31">
-        <v>19</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.09919571045576407</v>
-      </c>
-      <c r="C32">
-        <v>37</v>
-      </c>
-      <c r="D32">
-        <v>37</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>336</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K32">
-        <v>0.550561797752809</v>
+        <v>0.625</v>
       </c>
       <c r="L32">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2223,21 +2211,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K33">
-        <v>0.55</v>
+        <v>0.618798955613577</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2249,21 +2237,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K34">
-        <v>0.54</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2275,21 +2263,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K35">
-        <v>0.5333333333333333</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2301,21 +2289,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>0.5220338983050847</v>
+        <v>0.55</v>
       </c>
       <c r="L36">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2327,21 +2315,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>0.4923076923076923</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2353,21 +2341,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K38">
-        <v>0.4728033472803347</v>
+        <v>0.5146443514644351</v>
       </c>
       <c r="L38">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M38">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2379,21 +2367,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K39">
-        <v>0.453125</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2405,21 +2393,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K40">
-        <v>0.4520547945205479</v>
+        <v>0.5</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2431,15 +2419,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K41">
-        <v>0.4358974358974359</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L41">
         <v>34</v>
@@ -2457,21 +2445,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.425</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2483,21 +2471,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K43">
-        <v>0.4193548387096774</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2509,21 +2497,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K44">
-        <v>0.4047619047619048</v>
+        <v>0.45</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2535,21 +2523,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K45">
-        <v>0.3</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2561,21 +2549,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K46">
-        <v>0.2978723404255319</v>
+        <v>0.421875</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2587,21 +2575,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K47">
-        <v>0.2459016393442623</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2613,21 +2601,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K48">
-        <v>0.1259842519685039</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2639,21 +2627,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K49">
-        <v>0.09134615384615384</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L49">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2665,21 +2653,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>378</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K50">
-        <v>0.09090909090909091</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L50">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2691,15 +2679,15 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>380</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K51">
-        <v>0.08372093023255814</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L51">
         <v>18</v>
@@ -2717,21 +2705,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>197</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K52">
-        <v>0.07441860465116279</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2743,21 +2731,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>199</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K53">
-        <v>0.05480984340044743</v>
+        <v>0.1124401913875598</v>
       </c>
       <c r="L53">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M53">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2769,21 +2757,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>845</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K54">
-        <v>0.03975535168195719</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2795,21 +2783,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>314</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K55">
-        <v>0.03662597114317425</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L55">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2821,47 +2809,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>868</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56">
-        <v>0.03389830508474576</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N56">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>627</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K57">
-        <v>0.03114186851211072</v>
+        <v>0.05704697986577181</v>
       </c>
       <c r="L57">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M57">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2873,85 +2861,215 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K58">
-        <v>0.02476635514018691</v>
+        <v>0.05198776758409786</v>
       </c>
       <c r="L58">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="N58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>2087</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K59">
-        <v>0.01654601861427094</v>
+        <v>0.04772475027746948</v>
       </c>
       <c r="L59">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N59">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>951</v>
+        <v>858</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K60">
+        <v>0.03697996918335902</v>
+      </c>
+      <c r="L60">
+        <v>24</v>
+      </c>
+      <c r="M60">
+        <v>25</v>
+      </c>
+      <c r="N60">
+        <v>0.96</v>
+      </c>
+      <c r="O60">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K60">
-        <v>0.01160541586073501</v>
-      </c>
-      <c r="L60">
-        <v>36</v>
-      </c>
-      <c r="M60">
-        <v>41</v>
-      </c>
-      <c r="N60">
-        <v>0.88</v>
-      </c>
-      <c r="O60">
-        <v>0.12</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>3066</v>
+      <c r="K61">
+        <v>0.03085553997194951</v>
+      </c>
+      <c r="L61">
+        <v>66</v>
+      </c>
+      <c r="M61">
+        <v>70</v>
+      </c>
+      <c r="N61">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O61">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K62">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="L62">
+        <v>17</v>
+      </c>
+      <c r="M62">
+        <v>17</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K63">
+        <v>0.01739690721649485</v>
+      </c>
+      <c r="L63">
+        <v>54</v>
+      </c>
+      <c r="M63">
+        <v>57</v>
+      </c>
+      <c r="N63">
+        <v>0.95</v>
+      </c>
+      <c r="O63">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K64">
+        <v>0.01549586776859504</v>
+      </c>
+      <c r="L64">
+        <v>15</v>
+      </c>
+      <c r="M64">
+        <v>15</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>0.006261740763932373</v>
+      </c>
+      <c r="L65">
+        <v>20</v>
+      </c>
+      <c r="M65">
+        <v>27</v>
+      </c>
+      <c r="N65">
+        <v>0.74</v>
+      </c>
+      <c r="O65">
+        <v>0.26</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>3174</v>
       </c>
     </row>
   </sheetData>
